--- a/我的创作/财务/证券投资/股票/SEAP交易系统/模板/基本面追踪模板.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/模板/基本面追踪模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,13 +731,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="179" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -821,7 +821,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,8 +912,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,37 +929,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -890,30 +937,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,39 +950,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,7 +1004,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +1076,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,61 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1142,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,13 +1172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,67 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,11 +1213,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,6 +1232,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1242,6 +1268,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,49 +1305,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1315,94 +1315,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1411,52 +1411,52 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1488,16 +1488,16 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1518,10 +1518,10 @@
     <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,39 +1533,39 @@
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1581,7 +1581,7 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1590,7 +1590,7 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,8 +1917,8 @@
   <sheetPr/>
   <dimension ref="A1:CR18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AL2"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="BU1" sqref="BU1:CP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
